--- a/bots/crawl_ch/output/bread_coop_2023-02-18.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-18.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4097,31 +4097,31 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3042398</t>
+          <t>4522047</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mini Panettone</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/mini-panettone/p/3042398</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-naturaplan-bio-pizzateig-rustico-28cm/p/4522047</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E53" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.26/100g</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4155,42 +4155,46 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Mini Panettone 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4522047</t>
+          <t>3042398</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm</t>
+          <t>Mini Panettone</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-naturaplan-bio-pizzateig-rustico-28cm/p/4522047</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/mini-panettone/p/3042398</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -4199,12 +4203,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1.26/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4214,7 +4218,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4224,46 +4228,42 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mini Panettone 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3378512</t>
+          <t>6529966</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm</t>
+          <t>Fairtrade Reiswaffeln Joghurt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-naturaplan-bio-kuchenteig-rund-ausgewallt-32cm/p/3378512</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-joghurt/p/6529966</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -4272,12 +4272,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4297,46 +4297,46 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm 2.10 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln Joghurt 1.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6529966</t>
+          <t>3378512</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln Joghurt</t>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-joghurt/p/6529966</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-naturaplan-bio-kuchenteig-rund-ausgewallt-32cm/p/3378512</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -4345,12 +4345,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4370,22 +4370,22 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln Joghurt 1.45 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['vegetarian', 'gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6150,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6219,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -6864,45 +6864,45 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6820357</t>
+          <t>5689599</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
+          <t>Wasa Knäckebrot Vollkorn</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820357</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-vollkorn/p/5689599</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6922,60 +6922,56 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse 4.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot Vollkorn 25% ab 2 Aktion 2.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>5689599</t>
+          <t>4689879</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Vollkorn</t>
+          <t>Dar-Vida Oliven extra fin</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-vollkorn/p/5689599</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-oliven-extra-fin/p/4689879</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6985,7 +6981,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6995,56 +6991,56 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Vollkorn 25% ab 2 Aktion 2.30 Schweizer Franken</t>
+          <t>Dar-Vida Oliven extra fin 33% ab 3 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4689879</t>
+          <t>6820357</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Dar-Vida Oliven extra fin</t>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-oliven-extra-fin/p/4689879</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820357</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7054,7 +7050,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7064,18 +7060,22 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Dar-Vida Oliven extra fin 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse 4.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7286,28 +7286,28 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3685830</t>
+          <t>6820411</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam</t>
+          <t>Betty Bossi Frischback Panino rustico IP-Suisse</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-fairtrade-4-kornwaffeln-mit-sesam/p/3685830</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-panino-rustico-ip-suisse/p/6820411</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E98" t="n">
         <v>4.5</v>
@@ -7319,12 +7319,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1.42/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7344,43 +7344,43 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam 1.85 Schweizer Franken</t>
+          <t>Betty Bossi Frischback Panino rustico IP-Suisse 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6820411</t>
+          <t>3685830</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Panino rustico IP-Suisse</t>
+          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-panino-rustico-ip-suisse/p/6820411</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-fairtrade-4-kornwaffeln-mit-sesam/p/3685830</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E99" t="n">
         <v>4.5</v>
@@ -7392,12 +7392,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.42/100g</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7417,22 +7417,22 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Panino rustico IP-Suisse 3.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Fairtrade 4-Kornwaffeln mit Sesam 1.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8000,7 +8000,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8142,7 +8142,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8357,45 +8357,45 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>4952835</t>
+          <t>6382856</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei</t>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8415,60 +8415,56 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 25% ab 2 Aktion 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6382856</t>
+          <t>4373135</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
+          <t>Prix Garantie Mini Chinois 6 Stück</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8478,7 +8474,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8488,42 +8484,42 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 25% ab 2 Aktion 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4373135</t>
+          <t>6338745</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück</t>
+          <t>JaMaDu Jungle Cracker Apfel Banane</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8532,12 +8528,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8547,7 +8543,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8557,56 +8553,56 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
+          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>4952835</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Roland Zwieback glutenfrei</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8616,7 +8612,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8626,39 +8622,43 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr"/>
+          <t>Roland Zwieback glutenfrei 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6338745</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8670,12 +8670,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8695,18 +8695,18 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9136,45 +9136,45 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>5909397</t>
+          <t>3041596</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
+          <t>Naturaplan Bio Ballast Knäckebrot</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E124" t="n">
         <v>4.5</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9194,56 +9194,60 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr"/>
+          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3041596</t>
+          <t>5909397</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot</t>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-naturaplan-bio-cracker-kuerbiskerne/p/5909397</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E125" t="n">
         <v>4.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9253,7 +9257,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9263,60 +9267,56 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Naturaplan Bio Cracker Kürbiskerne 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6141017</t>
+          <t>4960272</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück</t>
+          <t>Roland Guezli Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-au-citron-7-stueck/p/6141017</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9336,56 +9336,56 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
+          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>4960272</t>
+          <t>6141017</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales</t>
+          <t>Bonne Maman Madeleine au Citron 7 Stück</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-au-citron-7-stueck/p/6141017</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9405,18 +9405,18 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9696,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9769,31 +9769,31 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>6826714</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -9802,12 +9802,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9827,42 +9827,42 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
+          <t>Naturaplan Bio Bündner Nusstorte 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>6826714</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -9871,12 +9871,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -9896,18 +9896,18 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 8.95 Schweizer Franken</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10410,45 +10410,45 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3410121</t>
+          <t>4750751</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
+          <t>Roland Knäckebrot Hafer</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-hafer/p/4750751</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.72/100g</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10473,55 +10473,55 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
+          <t>Roland Knäckebrot Hafer 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4750751</t>
+          <t>3410121</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Hafer</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-hafer/p/4750751</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>1.72/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10546,55 +10546,55 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Hafer 3.95 Schweizer Franken</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>3658651</t>
+          <t>6036925</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mulino Bianco Weizen-Brot</t>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-weizen-brot/p/3658651</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.58/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10614,56 +10614,60 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Mulino Bianco Weizen-Brot 2.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr"/>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 20% ab 2 Aktion 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6036925</t>
+          <t>3658651</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
+          <t>Mulino Bianco Weizen-Brot</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-weizen-brot/p/3658651</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>0.58/100g</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10673,7 +10677,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10683,22 +10687,18 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 20% ab 2 Aktion 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco Weizen-Brot 2.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10836,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11051,31 +11051,31 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>6569371</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Prix Garantie Knusperschnitte</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/prix-garantie-knusperschnitte/p/6569371</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -11084,12 +11084,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11109,46 +11109,46 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Prix Garantie Knusperschnitte 1.25 Schweizer Franken</t>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>6482125</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Prix Garantie Fairtrade Soft Cake Himbeere</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-himbeere/p/6482125</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -11157,12 +11157,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11187,41 +11187,37 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Fairtrade Soft Cake Himbeere 1.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6482125</t>
+          <t>6668613</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Himbeere</t>
+          <t>Prix Garantie Kuchenteig eckig</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-himbeere/p/6482125</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E153" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -11230,12 +11226,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11245,7 +11241,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11255,42 +11251,46 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Himbeere 1.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>6668613</t>
+          <t>6569371</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig</t>
+          <t>Prix Garantie Knusperschnitte</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/prix-garantie-knusperschnitte/p/6569371</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E154" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -11299,12 +11299,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11324,22 +11324,22 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
+          <t>Prix Garantie Knusperschnitte 1.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11481,145 +11481,145 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3431131</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2.88/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g 4.60 Schweizer Franken</t>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>3431131</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Betty Bossi Spitzbube 2x  80g</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E158" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>2.88/100g</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+          <t>Betty Bossi Spitzbube 2x  80g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11688,7 +11688,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11761,7 +11761,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11830,7 +11830,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11899,7 +11899,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12114,7 +12114,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12183,45 +12183,45 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>3360446</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Old El Paso Maistortillas 8 Stück</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-maistortillas-8-stueck/p/3360446</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12241,60 +12241,56 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Old El Paso Maistortillas 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>3360446</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Old El Paso Maistortillas 8 Stück</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-maistortillas-8-stueck/p/3360446</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E168" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12304,7 +12300,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12314,18 +12310,22 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>Old El Paso Maistortillas 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12394,7 +12394,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12463,7 +12463,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12532,7 +12532,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12605,45 +12605,45 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>4859018</t>
+          <t>6695031</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum</t>
+          <t>Prix Garantie Erdbeer Roulade</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-sandwich-tomate-basilicum/p/4859018</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E173" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12663,56 +12663,56 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum 33% ab 3 Aktion 5.20 Schweizer Franken</t>
+          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>4859018</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-sandwich-tomate-basilicum/p/4859018</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E174" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12722,7 +12722,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12732,56 +12732,56 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+          <t>Dar-Vida Sandwich Tomate &amp;amp; Basilicum 33% ab 3 Aktion 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>6695031</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E175" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -12801,18 +12801,18 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12881,7 +12881,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13096,45 +13096,45 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6767586</t>
+          <t>6750015</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie</t>
+          <t>Schär Pain Brioché</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13154,56 +13154,60 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr"/>
+          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6750015</t>
+          <t>6767586</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché</t>
+          <t>Milka Choco Brownie</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E181" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13213,7 +13217,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13223,22 +13227,18 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -13735,45 +13735,45 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>3040399</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E189" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13793,56 +13793,56 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E190" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -13862,60 +13862,56 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>6080763</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -13925,7 +13921,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -13935,56 +13931,60 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N191" t="inlineStr"/>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>3040399</t>
+          <t>6080763</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-classique-2-stueck/p/3040399</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="E192" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -13994,7 +13994,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14004,18 +14004,18 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Dèlifrance Frischback Baguettes Classique 2 Stück 2.10 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14157,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14230,45 +14230,45 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>4849123</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E196" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2.53/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14278,7 +14278,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14288,60 +14288,60 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g 3.80 Schweizer Franken</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['chilled', 'gluten_free']</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>4849123</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E197" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.53/100g</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14361,22 +14361,22 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>['chilled', 'gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14449,7 +14449,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14664,7 +14664,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14806,35 +14806,35 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E204" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -14844,7 +14844,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14854,7 +14854,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14864,22 +14864,22 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -14946,45 +14946,45 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E206" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15004,46 +15004,46 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>6390812</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E207" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -15052,12 +15052,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15067,7 +15067,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15077,42 +15077,46 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N207" t="inlineStr"/>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>6390812</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E208" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -15121,12 +15125,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15136,7 +15140,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15146,56 +15150,56 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>3602932</t>
+          <t>7036109</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen</t>
+          <t>Quicook Kuchenteig</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/quicook-kuchenteig/p/7036109</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Mestemacher</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15205,7 +15209,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15215,56 +15219,60 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N209" t="inlineStr"/>
+          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>7036109</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/quicook-kuchenteig/p/7036109</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E210" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15274,7 +15282,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15284,60 +15292,56 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>3602932</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E211" t="n">
         <v>4.5</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Mestemacher</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15347,7 +15351,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15357,22 +15361,18 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15441,45 +15441,45 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>6338746</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E213" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15489,7 +15489,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15499,46 +15499,46 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3938007</t>
+          <t>6338746</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>St Michel Madeleines</t>
+          <t>Country Cracker Sesam Stange</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -15548,7 +15548,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -15568,56 +15568,56 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>3938007</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>St Michel Madeleines</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15627,7 +15627,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15637,60 +15637,56 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E216" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15700,7 +15696,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15710,56 +15706,60 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N216" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Buchweizen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15779,18 +15779,18 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15930,7 +15930,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -15999,7 +15999,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16068,7 +16068,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16135,7 +16135,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16208,7 +16208,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16277,7 +16277,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16350,7 +16350,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16423,7 +16423,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16492,45 +16492,45 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>3861388</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E228" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Klas</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16550,56 +16550,56 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>3861388</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Klas Jufka Filoteig</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E229" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Klas</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16619,18 +16619,18 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -16703,45 +16703,45 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6575244</t>
+          <t>6738706</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free</t>
+          <t>Dar-Vida extra fin Mais Taco</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
         </is>
       </c>
       <c r="D231" t="n">
         <v>3</v>
       </c>
       <c r="E231" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>5.33/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16761,60 +16761,56 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free 20% ab 2 Aktion 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Dar-Vida extra fin Mais Taco 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>6738706</t>
+          <t>6575244</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco</t>
+          <t>Old el Paso Fajita mix Gluten Free</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
         </is>
       </c>
       <c r="D232" t="n">
         <v>3</v>
       </c>
       <c r="E232" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>5.33/100g</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -16824,7 +16820,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -16834,46 +16830,50 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N232" t="inlineStr"/>
+          <t>Old el Paso Fajita mix Gluten Free 20% ab 2 Aktion 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>7014628</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D233" t="n">
+        <v>1</v>
+      </c>
+      <c r="E233" t="n">
         <v>4</v>
       </c>
-      <c r="E233" t="n">
-        <v>5</v>
-      </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>4.94/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16893,7 +16893,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16903,43 +16903,39 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E234" t="n">
         <v>4.5</v>
@@ -16951,12 +16947,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -16966,7 +16962,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16981,51 +16977,51 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>5777498</t>
+          <t>7014628</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E235" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>4.10/100g</t>
+          <t>4.94/100g</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17035,7 +17031,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17045,56 +17041,60 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini 20% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N235" t="inlineStr"/>
+          <t>Dar-Vida Rustico Roggen-Quinoa 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E236" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17104,7 +17104,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17114,56 +17114,56 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>5777498</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Old el Paso Soft Taco Shells Mini</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E237" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>4.10/100g</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17173,7 +17173,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17183,56 +17183,56 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+          <t>Old el Paso Soft Taco Shells Mini 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E238" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17242,7 +17242,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17252,58 +17252,56 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>7016451</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>13</v>
+      </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17313,7 +17311,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17323,42 +17321,44 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N239" t="inlineStr"/>
+          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>7016451</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Schenkeli 7x30g</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -17367,12 +17367,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17382,7 +17382,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -17397,51 +17397,51 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.80 Schweizer Franken</t>
+          <t>Schenkeli 7x30g 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6786544</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E241" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>1.06/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17451,7 +17451,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17466,51 +17466,51 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>6786544</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>Mulino Bianco Nascondini</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E242" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>1.06/100g</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17520,7 +17520,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17535,13 +17535,13 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
+          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17610,7 +17610,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17679,7 +17679,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17750,7 +17750,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17823,7 +17823,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17890,7 +17890,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -17959,7 +17959,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18028,7 +18028,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18097,7 +18097,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18166,7 +18166,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18235,7 +18235,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18304,7 +18304,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18377,7 +18377,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18450,7 +18450,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18519,7 +18519,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18592,7 +18592,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -18665,45 +18665,45 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>6010377</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E259" t="n">
         <v>3.5</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Cailler</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18713,7 +18713,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18723,56 +18723,54 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18782,7 +18780,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18792,54 +18790,60 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N260" t="inlineStr"/>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -18849,7 +18853,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18859,60 +18863,56 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>6010377</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Cailler Schoggi Branchli Cake</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E262" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Cailler</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -18922,7 +18922,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18932,18 +18932,18 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19012,45 +19012,45 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6313852</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E264" t="n">
         <v>4.5</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19070,56 +19070,56 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>6313852</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>Roland Petite Pause Guezli Fruits</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E265" t="n">
         <v>4.5</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19129,7 +19129,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19139,18 +19139,18 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19292,7 +19292,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19361,7 +19361,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19430,7 +19430,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19497,7 +19497,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19564,45 +19564,45 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E272" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19622,60 +19622,56 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E273" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19685,7 +19681,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19695,18 +19691,22 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N273" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19848,7 +19848,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19917,7 +19917,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -19986,7 +19986,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20053,7 +20053,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20193,7 +20193,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20262,7 +20262,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20404,7 +20404,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20473,7 +20473,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20542,7 +20542,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20611,7 +20611,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20680,7 +20680,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20749,7 +20749,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20818,7 +20818,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20887,7 +20887,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21171,7 +21171,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21242,7 +21242,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21384,7 +21384,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21453,7 +21453,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21522,7 +21522,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21660,7 +21660,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21729,7 +21729,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21798,7 +21798,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21871,7 +21871,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22090,7 +22090,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22159,7 +22159,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22228,45 +22228,45 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E310" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22276,7 +22276,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22286,60 +22286,56 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N310" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22349,7 +22345,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22359,18 +22355,22 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N311" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22443,7 +22443,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22512,7 +22512,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22579,7 +22579,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22646,7 +22646,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22715,7 +22715,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22788,7 +22788,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -22934,7 +22934,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23003,7 +23003,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23072,7 +23072,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23279,43 +23279,45 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>3</v>
+      </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23325,7 +23327,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23335,56 +23337,54 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
-        </is>
-      </c>
-      <c r="D326" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
       <c r="E326" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23394,7 +23394,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23404,18 +23404,18 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
@@ -23488,7 +23488,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-18 12:55:49</t>
+          <t>2023-02-18 20:49:16</t>
         </is>
       </c>
     </row>
